--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="409">
   <si>
     <t>Open</t>
   </si>
@@ -1572,22 +1572,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>249</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>249</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>249</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>249</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>249</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>249</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>249</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>249</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>249</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>249</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>249</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>249</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>249</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>249</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>249</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>249</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>249</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>249</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>249</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>249</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>249</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>249</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>249</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>249</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>249</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>249</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>249</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>249</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>249</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>249</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>249</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>249</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>249</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>249</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>249</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>249</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>249</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>249</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>249</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>249</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>249</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>249</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>249</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>249</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>249</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>249</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>249</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>249</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>249</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>249</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>249</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>249</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>249</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>249</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>249</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>249</v>
       </c>
@@ -3418,18 +3418,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D81" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E81" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -3438,18 +3438,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -3458,18 +3458,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>249</v>
       </c>
       <c r="B83" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D83" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -3478,18 +3478,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3498,18 +3498,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D85" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -3518,18 +3518,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
@@ -3538,18 +3538,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>249</v>
       </c>
       <c r="B87" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D87" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E87" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3558,18 +3558,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>249</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3578,18 +3578,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>249</v>
       </c>
       <c r="B89" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -3598,18 +3598,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D90" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E90" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
@@ -3618,18 +3618,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>249</v>
       </c>
       <c r="B91" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D91" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E91" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -3638,18 +3638,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>249</v>
       </c>
       <c r="B92" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>277</v>
       </c>
       <c r="D92" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
@@ -3658,21 +3661,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>249</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E93" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -3681,21 +3684,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>249</v>
       </c>
       <c r="B94" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E94" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
@@ -3704,21 +3707,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>249</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -3727,21 +3730,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>249</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3750,21 +3753,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>249</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3773,21 +3776,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>249</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -3796,21 +3799,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>249</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E99" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -3819,21 +3822,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
@@ -3842,21 +3845,18 @@
         <v>407</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>249</v>
       </c>
       <c r="B101" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3865,18 +3865,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>249</v>
       </c>
       <c r="B102" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="C102" t="s">
+        <v>286</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E102" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -3885,21 +3888,21 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>249</v>
       </c>
       <c r="B103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E103" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
@@ -3908,49 +3911,26 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>249</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C104" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" t="s">
-        <v>315</v>
-      </c>
-      <c r="C105" t="s">
-        <v>288</v>
-      </c>
-      <c r="D105" t="s">
-        <v>276</v>
-      </c>
-      <c r="E105" t="s">
-        <v>406</v>
-      </c>
-      <c r="F105" t="s">
-        <v>0</v>
-      </c>
-      <c r="G105" t="s">
         <v>407</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="373">
   <si>
     <t>Open</t>
   </si>
@@ -108,18 +108,12 @@
     <t xml:space="preserve">European Surgical Research </t>
   </si>
   <si>
-    <t xml:space="preserve">European Thyroid Journal              </t>
-  </si>
-  <si>
     <t xml:space="preserve">Fetal Diagnosis and  Therapy </t>
   </si>
   <si>
     <t>Folia Phoniatrica et Logopaedica</t>
   </si>
   <si>
-    <t xml:space="preserve">Folia Primatologica </t>
-  </si>
-  <si>
     <t xml:space="preserve">Gerontology </t>
   </si>
   <si>
@@ -144,18 +138,6 @@
     <t xml:space="preserve">Journal of Vascular Research    </t>
   </si>
   <si>
-    <t>Karger Kompass Dermatologie</t>
-  </si>
-  <si>
-    <t>Karger Kompass Onkologie</t>
-  </si>
-  <si>
-    <t>Karger Kompass Ophthalmologie</t>
-  </si>
-  <si>
-    <t>Karger Kompass Pneumologie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molecular Neuropsychiatry </t>
   </si>
   <si>
@@ -207,9 +189,6 @@
     <t xml:space="preserve">Pharmacology  </t>
   </si>
   <si>
-    <t xml:space="preserve">Phonetica  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Psychopathology  </t>
   </si>
   <si>
@@ -267,33 +246,9 @@
     <t>Microbial Physiology</t>
   </si>
   <si>
-    <t>Karger Kompass Neumología</t>
-  </si>
-  <si>
-    <t>Karger Kompass Autoimmun</t>
-  </si>
-  <si>
     <t>2504-2106</t>
   </si>
   <si>
-    <t>2624-8476</t>
-  </si>
-  <si>
-    <t>2296-536X</t>
-  </si>
-  <si>
-    <t>2624-9073</t>
-  </si>
-  <si>
-    <t>2296-5386</t>
-  </si>
-  <si>
-    <t>2297-0045</t>
-  </si>
-  <si>
-    <t>2296-0317</t>
-  </si>
-  <si>
     <t>2673-1673</t>
   </si>
   <si>
@@ -381,18 +336,12 @@
     <t>1421-9921</t>
   </si>
   <si>
-    <t>2235-0802</t>
-  </si>
-  <si>
     <t>1421-9964</t>
   </si>
   <si>
     <t>1421-9972</t>
   </si>
   <si>
-    <t>1421-9980</t>
-  </si>
-  <si>
     <t>1423-0003</t>
   </si>
   <si>
@@ -465,9 +414,6 @@
     <t>1423-0313</t>
   </si>
   <si>
-    <t>1423-0321</t>
-  </si>
-  <si>
     <t>1423-033X</t>
   </si>
   <si>
@@ -504,24 +450,6 @@
     <t>2504-2092</t>
   </si>
   <si>
-    <t>2624-8468</t>
-  </si>
-  <si>
-    <t>2296-5424</t>
-  </si>
-  <si>
-    <t>2624-9065</t>
-  </si>
-  <si>
-    <t>2296-5416</t>
-  </si>
-  <si>
-    <t>2297-0118</t>
-  </si>
-  <si>
-    <t>2296-0368</t>
-  </si>
-  <si>
     <t>2673-1665</t>
   </si>
   <si>
@@ -612,18 +540,12 @@
     <t>www.karger.com/ESR</t>
   </si>
   <si>
-    <t>www.karger.com/ETJ</t>
-  </si>
-  <si>
     <t>www.karger.com/FDT</t>
   </si>
   <si>
     <t>www.karger.com/FPL</t>
   </si>
   <si>
-    <t>www.karger.com/FPR</t>
-  </si>
-  <si>
     <t>www.karger.com/GER</t>
   </si>
   <si>
@@ -648,24 +570,6 @@
     <t>www.karger.com/JVR</t>
   </si>
   <si>
-    <t>www.karger.com/KAI</t>
-  </si>
-  <si>
-    <t>www.karger.com/KKD</t>
-  </si>
-  <si>
-    <t>www.karger.com/KXN</t>
-  </si>
-  <si>
-    <t>www.karger.com/KKO</t>
-  </si>
-  <si>
-    <t>www.karger.com/KOP</t>
-  </si>
-  <si>
-    <t>www.karger.com/KKP</t>
-  </si>
-  <si>
     <t>www.karger.com/MIP</t>
   </si>
   <si>
@@ -723,9 +627,6 @@
     <t>www.karger.com/PHA</t>
   </si>
   <si>
-    <t>www.karger.com/PHO</t>
-  </si>
-  <si>
     <t>www.karger.com/PSP</t>
   </si>
   <si>
@@ -777,9 +678,6 @@
     <t>Case Reports in Acute Medicine</t>
   </si>
   <si>
-    <t>Case Reports in Clinical Nutrition</t>
-  </si>
-  <si>
     <t>Case Reports in Dermatology</t>
   </si>
   <si>
@@ -804,9 +702,6 @@
     <t>Cerebrovascular Diseases Extra</t>
   </si>
   <si>
-    <t>Current Urology</t>
-  </si>
-  <si>
     <t>Dementia and Geriatric Cognitive Disorders Extra</t>
   </si>
   <si>
@@ -894,9 +789,6 @@
     <t xml:space="preserve">2504-5288 </t>
   </si>
   <si>
-    <t xml:space="preserve">2571-662X </t>
-  </si>
-  <si>
     <t>1662-6567</t>
   </si>
   <si>
@@ -921,9 +813,6 @@
     <t>1664-5456</t>
   </si>
   <si>
-    <t>1661-7657</t>
-  </si>
-  <si>
     <t>1664-5464</t>
   </si>
   <si>
@@ -1041,18 +930,12 @@
     <t>0014-312X</t>
   </si>
   <si>
-    <t>2235-0640</t>
-  </si>
-  <si>
     <t>1015-3837</t>
   </si>
   <si>
     <t>1021-7762</t>
   </si>
   <si>
-    <t>0015-5713</t>
-  </si>
-  <si>
     <t>0304-324X</t>
   </si>
   <si>
@@ -1125,9 +1008,6 @@
     <t>0031-7012</t>
   </si>
   <si>
-    <t>0031-8388</t>
-  </si>
-  <si>
     <t>0254-4962</t>
   </si>
   <si>
@@ -1167,9 +1047,6 @@
     <t>www.karger.com/CRA</t>
   </si>
   <si>
-    <t>www.karger.com/CRC</t>
-  </si>
-  <si>
     <t>www.karger.com/CDE</t>
   </si>
   <si>
@@ -1194,9 +1071,6 @@
     <t>www.karger.com/CEE</t>
   </si>
   <si>
-    <t>www.karger.com/CUR</t>
-  </si>
-  <si>
     <t>www.karger.com/DEE</t>
   </si>
   <si>
@@ -1246,6 +1120,24 @@
   </si>
   <si>
     <t>CC-BY, CC-BY-NC, CC-BY-NC-ND</t>
+  </si>
+  <si>
+    <t>Dubai Diabetes and Endocrinology Journal</t>
+  </si>
+  <si>
+    <t>2673-1738</t>
+  </si>
+  <si>
+    <t>www.karger.com/DDE</t>
+  </si>
+  <si>
+    <t>2673-298X</t>
+  </si>
+  <si>
+    <t>Complex Psychiatry</t>
+  </si>
+  <si>
+    <t>www.karger.com/CXP</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1188,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1307,6 +1227,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G95" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G95"/>
+  <sortState ref="A2:H188">
+    <sortCondition ref="D1:D94"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Imprint"/>
+    <tableColumn id="2" name="ISSN Electronic"/>
+    <tableColumn id="3" name="ISSN Print"/>
+    <tableColumn id="4" name="Journal Name"/>
+    <tableColumn id="5" name="JournalURL"/>
+    <tableColumn id="6" name="Publishing model"/>
+    <tableColumn id="7" name="CC License options"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1572,19 +1511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="54.42578125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1612,2330 +1551,2129 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>408</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G5" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>326</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G13" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>341</v>
       </c>
       <c r="F14" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" t="s">
-        <v>329</v>
+        <v>256</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="F15" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
+        <v>257</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>343</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>330</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>344</v>
       </c>
       <c r="F17" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" t="s">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
-        <v>188</v>
+        <v>345</v>
       </c>
       <c r="F18" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" t="s">
-        <v>332</v>
+        <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>189</v>
+        <v>346</v>
       </c>
       <c r="F19" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" t="s">
-        <v>334</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>348</v>
       </c>
       <c r="F21" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G26" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>372</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G29" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="D32" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="F32" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="F33" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G33" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G34" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" t="s">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>206</v>
+        <v>351</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="E37" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="F37" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="E38" t="s">
-        <v>208</v>
+        <v>352</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G39" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>301</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="F40" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>302</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="F42" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="F46" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G46" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G47" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="C51" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="F51" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="F52" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G52" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>358</v>
+        <v>311</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E54" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="F54" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="C56" t="s">
-        <v>360</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="F56" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="C57" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>235</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>358</v>
       </c>
       <c r="F57" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>216</v>
+      </c>
+      <c r="B58" t="s">
+        <v>273</v>
+      </c>
+      <c r="C58" t="s">
         <v>249</v>
       </c>
-      <c r="B58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C58" t="s">
-        <v>362</v>
-      </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="E58" t="s">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="F58" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
-      </c>
-      <c r="C60" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="E60" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="F60" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="D61" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="E61" t="s">
-        <v>231</v>
+        <v>362</v>
       </c>
       <c r="F61" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G62" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>367</v>
+        <v>144</v>
       </c>
       <c r="D63" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="F63" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>185</v>
       </c>
       <c r="F64" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C65" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G65" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="F66" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G66" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="F67" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G67" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C68" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="F68" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G68" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="D69" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G69" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="F70" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G70" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E71" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G71" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>277</v>
       </c>
       <c r="C72" t="s">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="F72" t="s">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="F73" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G73" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="F74" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G74" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="D75" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E75" t="s">
-        <v>245</v>
+        <v>195</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>246</v>
+        <v>196</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G76" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>171</v>
+        <v>324</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="F77" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G77" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>127</v>
+      </c>
+      <c r="C78" t="s">
+        <v>325</v>
       </c>
       <c r="D78" t="s">
-        <v>250</v>
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>380</v>
+        <v>198</v>
       </c>
       <c r="F78" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G78" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>290</v>
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>326</v>
       </c>
       <c r="D79" t="s">
-        <v>251</v>
+        <v>53</v>
       </c>
       <c r="E79" t="s">
-        <v>381</v>
+        <v>199</v>
       </c>
       <c r="F79" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G79" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>291</v>
+        <v>129</v>
+      </c>
+      <c r="C80" t="s">
+        <v>327</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G80" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>328</v>
       </c>
       <c r="D81" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
       <c r="E81" t="s">
-        <v>383</v>
+        <v>201</v>
       </c>
       <c r="F81" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G81" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>278</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="E82" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>294</v>
+        <v>131</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
       </c>
       <c r="D83" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>385</v>
+        <v>202</v>
       </c>
       <c r="F83" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G83" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>295</v>
+        <v>132</v>
+      </c>
+      <c r="C84" t="s">
+        <v>330</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>386</v>
+        <v>203</v>
       </c>
       <c r="F84" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G84" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>296</v>
+        <v>133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>331</v>
       </c>
       <c r="D85" t="s">
-        <v>257</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>387</v>
+        <v>204</v>
       </c>
       <c r="F85" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>134</v>
+      </c>
+      <c r="C86" t="s">
+        <v>332</v>
       </c>
       <c r="D86" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>205</v>
       </c>
       <c r="F86" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G86" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>333</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="E87" t="s">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="F87" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G87" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>136</v>
+      </c>
+      <c r="C88" t="s">
+        <v>334</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G88" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>300</v>
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>146</v>
       </c>
       <c r="D89" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="E89" t="s">
-        <v>391</v>
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G89" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B90" t="s">
-        <v>301</v>
+        <v>137</v>
+      </c>
+      <c r="C90" t="s">
+        <v>335</v>
       </c>
       <c r="D90" t="s">
-        <v>262</v>
+        <v>63</v>
       </c>
       <c r="E90" t="s">
-        <v>392</v>
+        <v>209</v>
       </c>
       <c r="F90" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G90" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>302</v>
+        <v>138</v>
+      </c>
+      <c r="C91" t="s">
+        <v>336</v>
       </c>
       <c r="D91" t="s">
-        <v>263</v>
+        <v>64</v>
       </c>
       <c r="E91" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="C92" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="E92" t="s">
-        <v>394</v>
+        <v>211</v>
       </c>
       <c r="F92" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G92" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="D93" t="s">
-        <v>265</v>
+        <v>73</v>
       </c>
       <c r="E93" t="s">
-        <v>395</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G93" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D94" t="s">
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="E94" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="F94" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="B95" t="s">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="C95" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>397</v>
+        <v>214</v>
       </c>
       <c r="F95" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G95" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" t="s">
-        <v>307</v>
-      </c>
-      <c r="C96" t="s">
-        <v>281</v>
-      </c>
-      <c r="D96" t="s">
-        <v>268</v>
-      </c>
-      <c r="E96" t="s">
-        <v>398</v>
-      </c>
-      <c r="F96" t="s">
-        <v>0</v>
-      </c>
-      <c r="G96" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>249</v>
-      </c>
-      <c r="B97" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" t="s">
-        <v>282</v>
-      </c>
-      <c r="D97" t="s">
-        <v>269</v>
-      </c>
-      <c r="E97" t="s">
-        <v>399</v>
-      </c>
-      <c r="F97" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>249</v>
-      </c>
-      <c r="B98" t="s">
-        <v>309</v>
-      </c>
-      <c r="C98" t="s">
-        <v>283</v>
-      </c>
-      <c r="D98" t="s">
-        <v>270</v>
-      </c>
-      <c r="E98" t="s">
-        <v>400</v>
-      </c>
-      <c r="F98" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>249</v>
-      </c>
-      <c r="B99" t="s">
-        <v>310</v>
-      </c>
-      <c r="C99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" t="s">
-        <v>271</v>
-      </c>
-      <c r="E99" t="s">
-        <v>401</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>249</v>
-      </c>
-      <c r="B100" t="s">
-        <v>311</v>
-      </c>
-      <c r="C100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" t="s">
-        <v>272</v>
-      </c>
-      <c r="E100" t="s">
-        <v>402</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>249</v>
-      </c>
-      <c r="B101" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" t="s">
-        <v>273</v>
-      </c>
-      <c r="E101" t="s">
-        <v>403</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>249</v>
-      </c>
-      <c r="B102" t="s">
-        <v>313</v>
-      </c>
-      <c r="C102" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" t="s">
-        <v>274</v>
-      </c>
-      <c r="E102" t="s">
-        <v>404</v>
-      </c>
-      <c r="F102" t="s">
-        <v>0</v>
-      </c>
-      <c r="G102" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>249</v>
-      </c>
-      <c r="B103" t="s">
-        <v>314</v>
-      </c>
-      <c r="C103" t="s">
-        <v>287</v>
-      </c>
-      <c r="D103" t="s">
-        <v>275</v>
-      </c>
-      <c r="E103" t="s">
-        <v>405</v>
-      </c>
-      <c r="F103" t="s">
-        <v>0</v>
-      </c>
-      <c r="G103" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>249</v>
-      </c>
-      <c r="B104" t="s">
-        <v>315</v>
-      </c>
-      <c r="C104" t="s">
-        <v>288</v>
-      </c>
-      <c r="D104" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" t="s">
-        <v>406</v>
-      </c>
-      <c r="F104" t="s">
-        <v>0</v>
-      </c>
-      <c r="G104" t="s">
-        <v>407</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D95">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C0FF32-FFC1-4F1F-BC7A-933791E298D5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1191,16 +1192,6 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1216,6 +1207,16 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1230,19 +1231,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G95" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G95"/>
-  <sortState ref="A2:H188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G95" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H188">
     <sortCondition ref="D1:D94"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,10 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2421,7 +2424,7 @@
         <v>172</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>365</v>
@@ -3085,7 +3088,7 @@
         <v>191</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
         <v>365</v>
@@ -3668,7 +3671,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D95">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43C0FF32-FFC1-4F1F-BC7A-933791E298D5}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC1A5E5-9319-4B15-842D-5CD000FC24BE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="376">
   <si>
     <t>Open</t>
   </si>
@@ -1139,6 +1139,15 @@
   </si>
   <si>
     <t>www.karger.com/CXP</t>
+  </si>
+  <si>
+    <t>2673-3633</t>
+  </si>
+  <si>
+    <t>Glomerular Diseases</t>
+  </si>
+  <si>
+    <t>www.karger.com/GDZ</t>
   </si>
 </sst>
 </file>
@@ -1182,14 +1191,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1207,16 +1227,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1231,10 +1241,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G95" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H188">
-    <sortCondition ref="D1:D94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G96">
+    <sortCondition ref="D1:D96"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
@@ -1512,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P86" sqref="P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2550,19 +2560,16 @@
         <v>216</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" t="s">
-        <v>176</v>
+        <v>374</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="F47" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G47" t="s">
         <v>365</v>
@@ -2573,16 +2580,16 @@
         <v>216</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F48" t="s">
         <v>215</v>
@@ -2596,16 +2603,16 @@
         <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -2619,16 +2626,16 @@
         <v>216</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>215</v>
@@ -2642,19 +2649,19 @@
         <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>269</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="D51" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="F51" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
         <v>365</v>
@@ -2665,19 +2672,19 @@
         <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="F52" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G52" t="s">
         <v>365</v>
@@ -2688,16 +2695,16 @@
         <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F53" t="s">
         <v>215</v>
@@ -2711,19 +2718,19 @@
         <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
       <c r="D54" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="E54" t="s">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="F54" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
         <v>365</v>
@@ -2734,19 +2741,19 @@
         <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>270</v>
       </c>
       <c r="C55" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D55" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="E55" t="s">
-        <v>182</v>
+        <v>356</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G55" t="s">
         <v>365</v>
@@ -2757,19 +2764,19 @@
         <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>357</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
         <v>365</v>
@@ -2780,16 +2787,16 @@
         <v>216</v>
       </c>
       <c r="B57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2803,16 +2810,16 @@
         <v>216</v>
       </c>
       <c r="B58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -2826,16 +2833,16 @@
         <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2849,13 +2856,16 @@
         <v>216</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>250</v>
       </c>
       <c r="D60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -2869,16 +2879,13 @@
         <v>216</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
-      </c>
-      <c r="C61" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="D61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2892,19 +2899,19 @@
         <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>251</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>362</v>
       </c>
       <c r="F62" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G62" t="s">
         <v>365</v>
@@ -2915,16 +2922,16 @@
         <v>216</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
         <v>215</v>
@@ -2938,16 +2945,16 @@
         <v>216</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F64" t="s">
         <v>215</v>
@@ -2961,16 +2968,16 @@
         <v>216</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F65" t="s">
         <v>215</v>
@@ -2984,16 +2991,16 @@
         <v>216</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F66" t="s">
         <v>215</v>
@@ -3007,16 +3014,16 @@
         <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F67" t="s">
         <v>215</v>
@@ -3030,16 +3037,16 @@
         <v>216</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F68" t="s">
         <v>215</v>
@@ -3053,16 +3060,16 @@
         <v>216</v>
       </c>
       <c r="B69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F69" t="s">
         <v>215</v>
@@ -3076,19 +3083,19 @@
         <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G70" t="s">
         <v>365</v>
@@ -3099,19 +3106,19 @@
         <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G71" t="s">
         <v>365</v>
@@ -3122,19 +3129,19 @@
         <v>216</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="E72" t="s">
-        <v>363</v>
+        <v>192</v>
       </c>
       <c r="F72" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G72" t="s">
         <v>365</v>
@@ -3145,19 +3152,19 @@
         <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>363</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
         <v>365</v>
@@ -3168,16 +3175,16 @@
         <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F74" t="s">
         <v>215</v>
@@ -3191,16 +3198,16 @@
         <v>216</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F75" t="s">
         <v>215</v>
@@ -3214,16 +3221,16 @@
         <v>216</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F76" t="s">
         <v>215</v>
@@ -3237,16 +3244,16 @@
         <v>216</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F77" t="s">
         <v>215</v>
@@ -3260,16 +3267,16 @@
         <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F78" t="s">
         <v>215</v>
@@ -3283,16 +3290,16 @@
         <v>216</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F79" t="s">
         <v>215</v>
@@ -3306,16 +3313,16 @@
         <v>216</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F80" t="s">
         <v>215</v>
@@ -3329,16 +3336,16 @@
         <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
         <v>215</v>
@@ -3352,19 +3359,19 @@
         <v>216</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="D82" t="s">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
-        <v>364</v>
+        <v>201</v>
       </c>
       <c r="F82" t="s">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="G82" t="s">
         <v>365</v>
@@ -3375,19 +3382,19 @@
         <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>364</v>
       </c>
       <c r="F83" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G83" t="s">
         <v>365</v>
@@ -3398,16 +3405,16 @@
         <v>216</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C84" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F84" t="s">
         <v>215</v>
@@ -3421,16 +3428,16 @@
         <v>216</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F85" t="s">
         <v>215</v>
@@ -3444,16 +3451,16 @@
         <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F86" t="s">
         <v>215</v>
@@ -3467,16 +3474,16 @@
         <v>216</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
         <v>215</v>
@@ -3490,16 +3497,16 @@
         <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F88" t="s">
         <v>215</v>
@@ -3513,16 +3520,16 @@
         <v>216</v>
       </c>
       <c r="B89" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>334</v>
       </c>
       <c r="D89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" t="s">
         <v>215</v>
@@ -3536,16 +3543,16 @@
         <v>216</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>335</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F90" t="s">
         <v>215</v>
@@ -3559,16 +3566,16 @@
         <v>216</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C91" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F91" t="s">
         <v>215</v>
@@ -3582,16 +3589,16 @@
         <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F92" t="s">
         <v>215</v>
@@ -3605,16 +3612,16 @@
         <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C93" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F93" t="s">
         <v>215</v>
@@ -3628,16 +3635,16 @@
         <v>216</v>
       </c>
       <c r="B94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F94" t="s">
         <v>215</v>
@@ -3651,27 +3658,50 @@
         <v>216</v>
       </c>
       <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>339</v>
+      </c>
+      <c r="D95" t="s">
+        <v>66</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>215</v>
+      </c>
+      <c r="G95" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>147</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>67</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>214</v>
       </c>
-      <c r="F95" t="s">
-        <v>215</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="F96" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" t="s">
         <v>365</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D95">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="D2:D90 D92:D96">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FC1A5E5-9319-4B15-842D-5CD000FC24BE}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C560C6D4-EAB4-4403-BAD1-222305813114}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="374">
   <si>
     <t>Open</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">Journal of Vascular Research    </t>
   </si>
   <si>
-    <t xml:space="preserve">Molecular Neuropsychiatry </t>
-  </si>
-  <si>
     <t xml:space="preserve">Molecular Syndromology </t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>2673-1673</t>
   </si>
   <si>
-    <t>2296-9179</t>
-  </si>
-  <si>
     <t>2296-4657</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>2673-1665</t>
   </si>
   <si>
-    <t>2296-9209</t>
-  </si>
-  <si>
     <t>2296-4681</t>
   </si>
   <si>
@@ -574,9 +565,6 @@
     <t>www.karger.com/MIP</t>
   </si>
   <si>
-    <t>www.karger.com/MNP</t>
-  </si>
-  <si>
     <t>www.karger.com/MSY</t>
   </si>
   <si>
@@ -787,9 +775,6 @@
     <t>2296-6870</t>
   </si>
   <si>
-    <t xml:space="preserve">2504-5288 </t>
-  </si>
-  <si>
     <t>1662-6567</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
     <t>1663-2699</t>
   </si>
   <si>
-    <t xml:space="preserve">2296-9373 </t>
-  </si>
-  <si>
     <t>1664-5456</t>
   </si>
   <si>
@@ -1117,12 +1099,6 @@
     <t>www.karger.com/PJP</t>
   </si>
   <si>
-    <t>CC-BY, CC-BY-NC-ND</t>
-  </si>
-  <si>
-    <t>CC-BY, CC-BY-NC, CC-BY-NC-ND</t>
-  </si>
-  <si>
     <t>Dubai Diabetes and Endocrinology Journal</t>
   </si>
   <si>
@@ -1148,22 +1124,32 @@
   </si>
   <si>
     <t>www.karger.com/GDZ</t>
+  </si>
+  <si>
+    <t>CC-BY, CC-BY-NC</t>
+  </si>
+  <si>
+    <t>2504-5288</t>
+  </si>
+  <si>
+    <t>2296-9373</t>
+  </si>
+  <si>
+    <t>2813-0073</t>
+  </si>
+  <si>
+    <t>Immune Systems</t>
+  </si>
+  <si>
+    <t>www.karger.com/ims</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1191,43 +1177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1241,19 +1197,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G96" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:G96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G96">
-    <sortCondition ref="D1:D96"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D278B01-7249-4B75-A65A-CCC97EC61A19}" name="Table2" displayName="Table2" ref="A1:G96" totalsRowShown="0">
+  <autoFilter ref="A1:G96" xr:uid="{6D278B01-7249-4B75-A65A-CCC97EC61A19}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{F051631C-C96A-4750-B259-809C4D32C388}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{9184D708-9FD5-4CF8-B7FC-AE54AC56F117}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{C3B95179-1ABB-4FEB-9F53-8F5CAC254359}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{FE50D79A-2B3B-4810-829C-BDD5F03BF242}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{63B11FC0-47BB-4A8F-9727-8D092C4CF247}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{3D76647E-7FF2-4334-AF7D-E4F11A38A38E}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{496EC32E-3FF0-4C9C-BC44-12769DFC66C2}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1521,2192 +1474,2185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2248AD-DDC5-4E7D-88FD-942B17BB3B3F}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="54.42578125" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>369</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" t="s">
         <v>216</v>
       </c>
-      <c r="B16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" t="s">
-        <v>220</v>
-      </c>
       <c r="E16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G22" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D27" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E27" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F29" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G31" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G32" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F33" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G33" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s">
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F34" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G35" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D37" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E37" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F39" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D43" t="s">
         <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G43" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C45" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D47" t="s">
-        <v>374</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
+      </c>
+      <c r="E47" t="s">
+        <v>367</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
       </c>
       <c r="E49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
         <v>34</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C52" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
       <c r="D52" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="E52" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="C53" t="s">
-        <v>310</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="E53" t="s">
-        <v>180</v>
+        <v>349</v>
       </c>
       <c r="F53" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>111</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>305</v>
       </c>
       <c r="D55" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>178</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>264</v>
       </c>
       <c r="C56" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>350</v>
       </c>
       <c r="F56" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>112</v>
       </c>
       <c r="C57" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="G57" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E60" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>268</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
       </c>
       <c r="D61" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E61" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
-      </c>
-      <c r="C62" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>356</v>
       </c>
       <c r="F63" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F64" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F65" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G65" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G66" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G69" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G72" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C73" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E73" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G74" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C75" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G75" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G76" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C77" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G79" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C80" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G80" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E81" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F81" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F82" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C83" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D83" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C84" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E84" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F84" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F85" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C86" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E87" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G88" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D89" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G89" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F90" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G90" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C91" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E91" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G91" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F92" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F93" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G93" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B94" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E94" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G94" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B95" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F95" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G95" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E96" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G96" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D90 D92:D96">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C560C6D4-EAB4-4403-BAD1-222305813114}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E161AB-0D02-471E-B183-FA4B085EAE30}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="366">
   <si>
     <t>Open</t>
   </si>
@@ -46,18 +46,9 @@
     <t>Imprint</t>
   </si>
   <si>
-    <t xml:space="preserve">Acta Cytologica  </t>
-  </si>
-  <si>
-    <t>American  Journal of Nephrology</t>
-  </si>
-  <si>
     <t>Audiology and Neurotology</t>
   </si>
   <si>
-    <t xml:space="preserve">Blood Purification </t>
-  </si>
-  <si>
     <t>Brain, Behavior and Evolution</t>
   </si>
   <si>
@@ -67,105 +58,39 @@
     <t>Cardiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Cardiorenal Medicine           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cells Tissues Organs    </t>
-  </si>
-  <si>
     <t>Cerebrovascular Diseases</t>
   </si>
   <si>
     <t>Chemotherapy</t>
   </si>
   <si>
-    <t xml:space="preserve">Cytogenetic and  Genome Research  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dementia and  Geriatric Cognitive Disorders </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dermatology </t>
   </si>
   <si>
     <t>Developmental Neuroscience</t>
   </si>
   <si>
-    <t xml:space="preserve">Digestion  </t>
-  </si>
-  <si>
     <t>Digestive Diseases</t>
   </si>
   <si>
-    <t xml:space="preserve">Digestive Surgery </t>
-  </si>
-  <si>
     <t xml:space="preserve">European Addiction Research </t>
   </si>
   <si>
-    <t xml:space="preserve">European Neurology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Surgical Research </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetal Diagnosis and  Therapy </t>
-  </si>
-  <si>
     <t>Folia Phoniatrica et Logopaedica</t>
   </si>
   <si>
-    <t xml:space="preserve">Gerontology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gynecologic and Obstetric Investigation </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hormone Research in Paediatrics </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human Development </t>
-  </si>
-  <si>
     <t>Human Heredity</t>
   </si>
   <si>
-    <t xml:space="preserve">International Archives of Allergy and Immunology  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intervirology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal of Vascular Research    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Molecular Syndromology </t>
   </si>
   <si>
-    <t xml:space="preserve">Neonatology  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nephron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neurodegenerative Diseases </t>
-  </si>
-  <si>
     <t xml:space="preserve">Neuroepidemiology </t>
   </si>
   <si>
-    <t xml:space="preserve">Neuroimmunomodulation  </t>
-  </si>
-  <si>
     <t>Neuropsychobiology</t>
   </si>
   <si>
-    <t xml:space="preserve">Ocular Oncology and Pathology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oncology   </t>
-  </si>
-  <si>
     <t>Oncology Research and Treatment</t>
   </si>
   <si>
@@ -175,45 +100,15 @@
     <t xml:space="preserve">Ophthalmologica </t>
   </si>
   <si>
-    <t xml:space="preserve">ORL  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathobiology </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pediatric Neurosurgery </t>
   </si>
   <si>
-    <t xml:space="preserve">Pharmacology  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychopathology  </t>
-  </si>
-  <si>
     <t>Psychotherapy and Psychosomatics</t>
   </si>
   <si>
-    <t xml:space="preserve">Public Health Genomics              </t>
-  </si>
-  <si>
     <t>Pulse</t>
   </si>
   <si>
-    <t xml:space="preserve">Respiration </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexual Development                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin Appendage Disorders </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skin Pharmacology and Physiology </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stereotactic and Functional Neurosurgery </t>
-  </si>
-  <si>
     <t>Transfusion Medicine and Hemotherapy</t>
   </si>
   <si>
@@ -664,9 +559,6 @@
     <t>Biomedicine Hub</t>
   </si>
   <si>
-    <t>Case Reports in Acute Medicine</t>
-  </si>
-  <si>
     <t>Case Reports in Dermatology</t>
   </si>
   <si>
@@ -685,9 +577,6 @@
     <t>Case Reports in Ophthalmology</t>
   </si>
   <si>
-    <t>Case Reports in Orthopedic Research</t>
-  </si>
-  <si>
     <t>Cerebrovascular Diseases Extra</t>
   </si>
   <si>
@@ -697,12 +586,6 @@
     <t>Digital Biomarkers</t>
   </si>
   <si>
-    <t>Dubai Medical Journal</t>
-  </si>
-  <si>
-    <t>Gastrointestinal Tumors</t>
-  </si>
-  <si>
     <t>GE - Portuguese Journal of Gastroenterology</t>
   </si>
   <si>
@@ -736,12 +619,6 @@
     <t>Portuguese Journal of Public Health</t>
   </si>
   <si>
-    <t>2571-6522</t>
-  </si>
-  <si>
-    <t>2296-3774</t>
-  </si>
-  <si>
     <t>2341-4545</t>
   </si>
   <si>
@@ -802,12 +679,6 @@
     <t>2504-110X</t>
   </si>
   <si>
-    <t>2571-726X</t>
-  </si>
-  <si>
-    <t>2296-3766</t>
-  </si>
-  <si>
     <t>2387-1954</t>
   </si>
   <si>
@@ -1027,9 +898,6 @@
     <t>www.karger.com/BMH</t>
   </si>
   <si>
-    <t>www.karger.com/CRA</t>
-  </si>
-  <si>
     <t>www.karger.com/CDE</t>
   </si>
   <si>
@@ -1048,9 +916,6 @@
     <t>www.karger.com/COP</t>
   </si>
   <si>
-    <t>www.karger.com/CIO</t>
-  </si>
-  <si>
     <t>www.karger.com/CEE</t>
   </si>
   <si>
@@ -1060,12 +925,6 @@
     <t>www.karger.com/DIB</t>
   </si>
   <si>
-    <t>www.karger.com/DMJ</t>
-  </si>
-  <si>
-    <t>www.karger.com/GAT</t>
-  </si>
-  <si>
     <t>www.karger.com/PJG</t>
   </si>
   <si>
@@ -1099,15 +958,6 @@
     <t>www.karger.com/PJP</t>
   </si>
   <si>
-    <t>Dubai Diabetes and Endocrinology Journal</t>
-  </si>
-  <si>
-    <t>2673-1738</t>
-  </si>
-  <si>
-    <t>www.karger.com/DDE</t>
-  </si>
-  <si>
     <t>2673-298X</t>
   </si>
   <si>
@@ -1129,12 +979,6 @@
     <t>CC-BY, CC-BY-NC</t>
   </si>
   <si>
-    <t>2504-5288</t>
-  </si>
-  <si>
-    <t>2296-9373</t>
-  </si>
-  <si>
     <t>2813-0073</t>
   </si>
   <si>
@@ -1142,6 +986,138 @@
   </si>
   <si>
     <t>www.karger.com/ims</t>
+  </si>
+  <si>
+    <t>Acta Cytologica</t>
+  </si>
+  <si>
+    <t>American Journal of Nephrology</t>
+  </si>
+  <si>
+    <t>Blood Purification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiorenal Medicine   </t>
+  </si>
+  <si>
+    <t>Cells Tissues Organs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytogenetic and  Genome Research </t>
+  </si>
+  <si>
+    <t>Dementia and Geriatric Cognitive Disorders</t>
+  </si>
+  <si>
+    <t>Digestion</t>
+  </si>
+  <si>
+    <t>Digestive Surgery</t>
+  </si>
+  <si>
+    <t>European Neurology</t>
+  </si>
+  <si>
+    <t>European Surgical Research</t>
+  </si>
+  <si>
+    <t>Fetal Diagnosis and Therapy</t>
+  </si>
+  <si>
+    <t>Gerontology</t>
+  </si>
+  <si>
+    <t>Gynecologic and Obstetric Investigation</t>
+  </si>
+  <si>
+    <t>Hormone Research in Paediatrics</t>
+  </si>
+  <si>
+    <t>Human Development</t>
+  </si>
+  <si>
+    <t>International Archives of Allergy and Immunology</t>
+  </si>
+  <si>
+    <t>Intervirology</t>
+  </si>
+  <si>
+    <t>Journal of Vascular Research</t>
+  </si>
+  <si>
+    <t>Neonatology</t>
+  </si>
+  <si>
+    <t>Nephron</t>
+  </si>
+  <si>
+    <t>Neurodegenerative Diseases</t>
+  </si>
+  <si>
+    <t>Neuroimmunomodulation</t>
+  </si>
+  <si>
+    <t>Ocular Oncology and Pathology</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>Pathobiology</t>
+  </si>
+  <si>
+    <t>Pharmacology</t>
+  </si>
+  <si>
+    <t>Psychopathology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Health Genomics          </t>
+  </si>
+  <si>
+    <t>Respiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual Development               </t>
+  </si>
+  <si>
+    <t>Skin Appendage Disorders</t>
+  </si>
+  <si>
+    <t>Skin Pharmacology and Physiology</t>
+  </si>
+  <si>
+    <t>Stereotactic and Functional Neurosurgery</t>
+  </si>
+  <si>
+    <t>2813-9151</t>
+  </si>
+  <si>
+    <t>Endocrinology Insights</t>
+  </si>
+  <si>
+    <t>www.karger.com/ENI</t>
+  </si>
+  <si>
+    <t>2813-8996</t>
+  </si>
+  <si>
+    <t>Maternal and Children's Health</t>
+  </si>
+  <si>
+    <t>www.karger.com/MCH</t>
+  </si>
+  <si>
+    <t>2673-6136</t>
+  </si>
+  <si>
+    <t>Saudi Journal of Health Systems Research</t>
+  </si>
+  <si>
+    <t>www.karger.com/SJH</t>
   </si>
 </sst>
 </file>
@@ -1197,16 +1173,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6D278B01-7249-4B75-A65A-CCC97EC61A19}" name="Table2" displayName="Table2" ref="A1:G96" totalsRowShown="0">
-  <autoFilter ref="A1:G96" xr:uid="{6D278B01-7249-4B75-A65A-CCC97EC61A19}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{776013C0-2860-4FA6-A9D0-51F63872E68C}" name="Table1" displayName="Table1" ref="A1:G94" totalsRowShown="0">
+  <autoFilter ref="A1:G94" xr:uid="{776013C0-2860-4FA6-A9D0-51F63872E68C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">
+    <sortCondition ref="D1:D94"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F051631C-C96A-4750-B259-809C4D32C388}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{9184D708-9FD5-4CF8-B7FC-AE54AC56F117}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{C3B95179-1ABB-4FEB-9F53-8F5CAC254359}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{FE50D79A-2B3B-4810-829C-BDD5F03BF242}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{63B11FC0-47BB-4A8F-9727-8D092C4CF247}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{3D76647E-7FF2-4334-AF7D-E4F11A38A38E}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{496EC32E-3FF0-4C9C-BC44-12769DFC66C2}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{AC118911-01BA-4C55-A02C-14D496A804A9}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{236D2EC0-6461-44E4-8B6E-058142DA4276}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{2E5B1792-8499-48B5-8062-54519585DF94}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{64F56296-157E-418F-83DA-CA7CFBD365FE}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{01B70475-040D-4903-9360-D670B3D321A2}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{2C051B3B-BC03-462C-80CE-B0486DEBEC92}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{AEDE84BB-B41E-4710-9985-D349BCBCF6A1}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1474,8 +1453,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2248AD-DDC5-4E7D-88FD-942B17BB3B3F}">
-  <dimension ref="A1:G96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D29ADF-BAF2-464D-9014-BA6B8C14049F}">
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1517,2136 +1496,2090 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>322</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="E8" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
-        <v>252</v>
-      </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>337</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="E20" t="s">
-        <v>341</v>
+        <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>284</v>
+        <v>216</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="E22" t="s">
-        <v>156</v>
+        <v>298</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>257</v>
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>343</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>362</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="E27" t="s">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G29" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>344</v>
+        <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G30" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="F31" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G31" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G32" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G33" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="F34" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>358</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>359</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G36" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B37" t="s">
-        <v>360</v>
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
       <c r="E37" t="s">
-        <v>361</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>225</v>
+        <v>332</v>
       </c>
       <c r="E38" t="s">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F39" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G39" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G40" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>296</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>334</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G42" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>316</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="F43" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="D44" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="E44" t="s">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D45" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="E45" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="F45" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
-        <v>31</v>
+        <v>337</v>
       </c>
       <c r="E46" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>365</v>
+        <v>74</v>
+      </c>
+      <c r="C47" t="s">
+        <v>260</v>
       </c>
       <c r="D47" t="s">
-        <v>366</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="F48" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>338</v>
       </c>
       <c r="E50" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G50" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>35</v>
+        <v>339</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>371</v>
+        <v>221</v>
+      </c>
+      <c r="C52" t="s">
+        <v>201</v>
       </c>
       <c r="D52" t="s">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="E52" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
         <v>263</v>
       </c>
-      <c r="C53" t="s">
-        <v>241</v>
-      </c>
       <c r="D53" t="s">
-        <v>228</v>
+        <v>340</v>
       </c>
       <c r="E53" t="s">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
         <v>304</v>
       </c>
-      <c r="D54" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" t="s">
-        <v>177</v>
-      </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E55" t="s">
         <v>305</v>
-      </c>
-      <c r="D55" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" t="s">
-        <v>178</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="D56" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
       <c r="D57" t="s">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
-      </c>
-      <c r="C58" t="s">
-        <v>243</v>
+        <v>360</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
-      </c>
-      <c r="C59" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E60" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>354</v>
+        <v>145</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>264</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G62" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="D63" t="s">
-        <v>235</v>
+        <v>341</v>
       </c>
       <c r="E63" t="s">
-        <v>356</v>
+        <v>147</v>
       </c>
       <c r="F63" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G63" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F64" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G64" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
-        <v>39</v>
+        <v>343</v>
       </c>
       <c r="E65" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G65" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G66" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="D67" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="F67" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G67" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>344</v>
       </c>
       <c r="E68" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G69" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>312</v>
+        <v>207</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="F71" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="F73" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G73" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="F75" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G75" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G76" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="F77" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G77" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G78" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="D79" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G79" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s">
-        <v>320</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="D81" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G81" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="D82" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G82" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B83" t="s">
-        <v>272</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="D83" t="s">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="E83" t="s">
-        <v>358</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B84" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="D85" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
       <c r="E85" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G85" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>364</v>
       </c>
       <c r="E86" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="G87" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>59</v>
+        <v>354</v>
       </c>
       <c r="E88" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G88" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>60</v>
+        <v>355</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G89" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="D90" t="s">
-        <v>61</v>
+        <v>356</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G90" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="D91" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="F91" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G91" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G92" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="D93" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G93" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>332</v>
+        <v>109</v>
       </c>
       <c r="D94" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="G94" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>212</v>
-      </c>
-      <c r="B95" t="s">
-        <v>139</v>
-      </c>
-      <c r="C95" t="s">
-        <v>333</v>
-      </c>
-      <c r="D95" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" t="s">
-        <v>209</v>
-      </c>
-      <c r="F95" t="s">
-        <v>211</v>
-      </c>
-      <c r="G95" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" t="s">
-        <v>78</v>
-      </c>
-      <c r="C96" t="s">
-        <v>144</v>
-      </c>
-      <c r="D96" t="s">
-        <v>66</v>
-      </c>
-      <c r="E96" t="s">
-        <v>210</v>
-      </c>
-      <c r="F96" t="s">
-        <v>211</v>
-      </c>
-      <c r="G96" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_karger.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E161AB-0D02-471E-B183-FA4B085EAE30}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_2B86626789D34CA49253071FEE85455713EB838B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C272C38-6DC4-4A8B-9BC2-C9404F303D78}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -352,204 +352,6 @@
     <t>2297-4725</t>
   </si>
   <si>
-    <t>www.karger.com/ACY</t>
-  </si>
-  <si>
-    <t>www.karger.com/AHA</t>
-  </si>
-  <si>
-    <t>www.karger.com/AJN</t>
-  </si>
-  <si>
-    <t>www.karger.com/ANM</t>
-  </si>
-  <si>
-    <t>www.karger.com/AUD</t>
-  </si>
-  <si>
-    <t>www.karger.com/BPU</t>
-  </si>
-  <si>
-    <t>www.karger.com/BBE</t>
-  </si>
-  <si>
-    <t>www.karger.com/BRC</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRD</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRM</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRE</t>
-  </si>
-  <si>
-    <t>www.karger.com/CTO</t>
-  </si>
-  <si>
-    <t>www.karger.com/CED</t>
-  </si>
-  <si>
-    <t>www.karger.com/CHE</t>
-  </si>
-  <si>
-    <t>www.karger.com/CMR</t>
-  </si>
-  <si>
-    <t>www.karger.com/CGR</t>
-  </si>
-  <si>
-    <t>www.karger.com/DEM</t>
-  </si>
-  <si>
-    <t>www.karger.com/DRM</t>
-  </si>
-  <si>
-    <t>www.karger.com/DNE</t>
-  </si>
-  <si>
-    <t>www.karger.com/DIG</t>
-  </si>
-  <si>
-    <t>www.karger.com/DDI</t>
-  </si>
-  <si>
-    <t>www.karger.com/DSU</t>
-  </si>
-  <si>
-    <t>www.karger.com/EAR</t>
-  </si>
-  <si>
-    <t>www.karger.com/ENE</t>
-  </si>
-  <si>
-    <t>www.karger.com/ESR</t>
-  </si>
-  <si>
-    <t>www.karger.com/FDT</t>
-  </si>
-  <si>
-    <t>www.karger.com/FPL</t>
-  </si>
-  <si>
-    <t>www.karger.com/GER</t>
-  </si>
-  <si>
-    <t>www.karger.com/GOI</t>
-  </si>
-  <si>
-    <t>www.karger.com/HRP</t>
-  </si>
-  <si>
-    <t>www.karger.com/HDE</t>
-  </si>
-  <si>
-    <t>www.karger.com/HHE</t>
-  </si>
-  <si>
-    <t>www.karger.com/IAA</t>
-  </si>
-  <si>
-    <t>www.karger.com/INT</t>
-  </si>
-  <si>
-    <t>www.karger.com/JVR</t>
-  </si>
-  <si>
-    <t>www.karger.com/MIP</t>
-  </si>
-  <si>
-    <t>www.karger.com/MSY</t>
-  </si>
-  <si>
-    <t>www.karger.com/NEO</t>
-  </si>
-  <si>
-    <t>www.karger.com/NEF</t>
-  </si>
-  <si>
-    <t>www.karger.com/NDD</t>
-  </si>
-  <si>
-    <t>www.karger.com/NEN</t>
-  </si>
-  <si>
-    <t>www.karger.com/NED</t>
-  </si>
-  <si>
-    <t>www.karger.com/NIM</t>
-  </si>
-  <si>
-    <t>www.karger.com/NPS</t>
-  </si>
-  <si>
-    <t>www.karger.com/OOP</t>
-  </si>
-  <si>
-    <t>www.karger.com/OCL</t>
-  </si>
-  <si>
-    <t>www.karger.com/ORT</t>
-  </si>
-  <si>
-    <t>www.karger.com/ORE</t>
-  </si>
-  <si>
-    <t>www.karger.com/OPH</t>
-  </si>
-  <si>
-    <t>www.karger.com/ORL</t>
-  </si>
-  <si>
-    <t>www.karger.com/PAT</t>
-  </si>
-  <si>
-    <t>www.karger.com/PNE</t>
-  </si>
-  <si>
-    <t>www.karger.com/PHA</t>
-  </si>
-  <si>
-    <t>www.karger.com/PSP</t>
-  </si>
-  <si>
-    <t>www.karger.com/PPS</t>
-  </si>
-  <si>
-    <t>www.karger.com/PHG</t>
-  </si>
-  <si>
-    <t>www.karger.com/PLS</t>
-  </si>
-  <si>
-    <t>www.karger.com/RES</t>
-  </si>
-  <si>
-    <t>www.karger.com/SXD</t>
-  </si>
-  <si>
-    <t>www.karger.com/SAD</t>
-  </si>
-  <si>
-    <t>www.karger.com/SPP</t>
-  </si>
-  <si>
-    <t>www.karger.com/SFN</t>
-  </si>
-  <si>
-    <t>www.karger.com/TMH</t>
-  </si>
-  <si>
-    <t>www.karger.com/UIN</t>
-  </si>
-  <si>
-    <t>www.karger.com/VER</t>
-  </si>
-  <si>
-    <t>www.karger.com/VIS</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
@@ -895,87 +697,18 @@
     <t>1016-6262</t>
   </si>
   <si>
-    <t>www.karger.com/BMH</t>
-  </si>
-  <si>
-    <t>www.karger.com/CDE</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRG</t>
-  </si>
-  <si>
-    <t>www.karger.com/CND</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRN</t>
-  </si>
-  <si>
-    <t>www.karger.com/CRO</t>
-  </si>
-  <si>
-    <t>www.karger.com/COP</t>
-  </si>
-  <si>
-    <t>www.karger.com/CEE</t>
-  </si>
-  <si>
-    <t>www.karger.com/DEE</t>
-  </si>
-  <si>
-    <t>www.karger.com/DIB</t>
-  </si>
-  <si>
-    <t>www.karger.com/PJG</t>
-  </si>
-  <si>
-    <t>www.karger.com/IID</t>
-  </si>
-  <si>
-    <t>www.karger.com/JIN</t>
-  </si>
-  <si>
-    <t>www.karger.com/KBR</t>
-  </si>
-  <si>
-    <t>www.karger.com/KDD</t>
-  </si>
-  <si>
-    <t>www.karger.com/LFG</t>
-  </si>
-  <si>
-    <t>www.karger.com/LIC</t>
-  </si>
-  <si>
-    <t>www.karger.com/MCA</t>
-  </si>
-  <si>
-    <t>www.karger.com/MPP</t>
-  </si>
-  <si>
-    <t>www.karger.com/OFA</t>
-  </si>
-  <si>
-    <t>www.karger.com/PJP</t>
-  </si>
-  <si>
     <t>2673-298X</t>
   </si>
   <si>
     <t>Complex Psychiatry</t>
   </si>
   <si>
-    <t>www.karger.com/CXP</t>
-  </si>
-  <si>
     <t>2673-3633</t>
   </si>
   <si>
     <t>Glomerular Diseases</t>
   </si>
   <si>
-    <t>www.karger.com/GDZ</t>
-  </si>
-  <si>
     <t>CC-BY, CC-BY-NC</t>
   </si>
   <si>
@@ -985,9 +718,6 @@
     <t>Immune Systems</t>
   </si>
   <si>
-    <t>www.karger.com/ims</t>
-  </si>
-  <si>
     <t>Acta Cytologica</t>
   </si>
   <si>
@@ -1099,25 +829,295 @@
     <t>Endocrinology Insights</t>
   </si>
   <si>
-    <t>www.karger.com/ENI</t>
-  </si>
-  <si>
     <t>2813-8996</t>
   </si>
   <si>
     <t>Maternal and Children's Health</t>
   </si>
   <si>
-    <t>www.karger.com/MCH</t>
-  </si>
-  <si>
     <t>2673-6136</t>
   </si>
   <si>
     <t>Saudi Journal of Health Systems Research</t>
   </si>
   <si>
-    <t>www.karger.com/SJH</t>
+    <t>https://www.karger.com/ACY</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/AHA</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/AJN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ANM</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/AUD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/BMH</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/BPU</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/BBE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/BRC</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRM</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CDE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRG</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CND</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CRO</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/COP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CTO</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CED</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CEE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CHE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CMR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CXP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/CGR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DEM</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DEE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DRM</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DNE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DIG</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DDI</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DSU</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/DIB</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ENI</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/EAR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ENE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ESR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/FDT</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/FPL</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PJG</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/GER</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/GDZ</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/GOI</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/HRP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/HDE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/HHE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ims</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/IID</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/IAA</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/INT</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/JIN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/JVR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/KBR</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/KDD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/LFG</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/LIC</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/MCH</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/MCA</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/MPP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/MIP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/MSY</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NEO</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NEF</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NDD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NEN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NED</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NIM</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/NPS</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/OFA</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/OOP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/OCL</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ORT</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ORE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/OPH</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/ORL</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PAT</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PNE</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PHA</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PJP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PSP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PPS</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PHG</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/PLS</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/RES</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/SJH</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/SXD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/SAD</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/SPP</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/SFN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/TMH</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/UIN</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/VER</t>
+  </si>
+  <si>
+    <t>https://www.karger.com/VIS</t>
   </si>
 </sst>
 </file>
@@ -1173,19 +1173,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{776013C0-2860-4FA6-A9D0-51F63872E68C}" name="Table1" displayName="Table1" ref="A1:G94" totalsRowShown="0">
-  <autoFilter ref="A1:G94" xr:uid="{776013C0-2860-4FA6-A9D0-51F63872E68C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">
-    <sortCondition ref="D1:D94"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B566C458-9C78-40E8-A910-D83220DE7826}" name="Table2" displayName="Table2" ref="A1:G94" totalsRowShown="0">
+  <autoFilter ref="A1:G94" xr:uid="{B566C458-9C78-40E8-A910-D83220DE7826}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AC118911-01BA-4C55-A02C-14D496A804A9}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{236D2EC0-6461-44E4-8B6E-058142DA4276}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{2E5B1792-8499-48B5-8062-54519585DF94}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{64F56296-157E-418F-83DA-CA7CFBD365FE}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{01B70475-040D-4903-9360-D670B3D321A2}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{2C051B3B-BC03-462C-80CE-B0486DEBEC92}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{AEDE84BB-B41E-4710-9985-D349BCBCF6A1}" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{4C76505C-4340-48AD-A513-CD317122D6F8}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{8D4CA471-9670-4400-A0FD-8A3EAF0BBA82}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{AC096159-F817-4E4C-B77F-45F76B72F347}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{A25F1EF9-58C5-4C49-A921-3D00736F074A}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{E4F4D599-BD4C-40D4-A847-A8F4B0F55B1F}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{C4ECE40F-EDE4-4D59-B9B9-726A4BAFCBE2}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{606BBDDB-0A4A-479A-9E99-726C1F6F794F}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1453,7 +1450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D29ADF-BAF2-464D-9014-BA6B8C14049F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47498819-10B9-4F74-8D7C-237D05FC09EE}">
   <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1466,7 +1463,7 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
   </cols>
@@ -1496,489 +1493,489 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>324</v>
+        <v>234</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>325</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>291</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -1990,90 +1987,90 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="D26" t="s">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>297</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>298</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>299</v>
@@ -2082,730 +2079,730 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
         <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="F30" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>329</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>302</v>
       </c>
       <c r="F31" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>267</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>307</v>
       </c>
       <c r="F36" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>331</v>
+        <v>241</v>
       </c>
       <c r="E37" t="s">
-        <v>133</v>
+        <v>308</v>
       </c>
       <c r="F37" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G37" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>134</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G39" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B40" t="s">
         <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>244</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G42" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="D43" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>245</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
       <c r="F44" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G44" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
       <c r="F45" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
         <v>73</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="D46" t="s">
-        <v>337</v>
+        <v>247</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
         <v>74</v>
       </c>
       <c r="C47" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" t="s">
         <v>319</v>
-      </c>
-      <c r="D48" t="s">
-        <v>320</v>
-      </c>
-      <c r="E48" t="s">
-        <v>321</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G50" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="D51" t="s">
-        <v>339</v>
+        <v>249</v>
       </c>
       <c r="E51" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="D53" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>324</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="D60" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
@@ -2817,225 +2814,225 @@
         <v>38</v>
       </c>
       <c r="E61" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
         <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
         <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>333</v>
       </c>
       <c r="F62" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G62" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
         <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
-        <v>341</v>
+        <v>251</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G63" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
         <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="D64" t="s">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>335</v>
       </c>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G64" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
         <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="F65" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G65" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B66" t="s">
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
         <v>36</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>337</v>
       </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G66" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>338</v>
       </c>
       <c r="F67" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G67" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="E68" t="s">
-        <v>152</v>
+        <v>339</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
         <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>340</v>
       </c>
       <c r="F69" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G69" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
         <v>41</v>
@@ -3044,386 +3041,386 @@
         <v>107</v>
       </c>
       <c r="D71" t="s">
-        <v>345</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>342</v>
       </c>
       <c r="F71" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G71" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
         <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>343</v>
       </c>
       <c r="F72" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G72" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B73" t="s">
         <v>87</v>
       </c>
       <c r="C73" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>344</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G73" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
         <v>88</v>
       </c>
       <c r="C74" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>157</v>
+        <v>345</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
         <v>89</v>
       </c>
       <c r="C75" t="s">
-        <v>275</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>158</v>
+        <v>346</v>
       </c>
       <c r="F75" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G75" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
         <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="D76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" t="s">
         <v>347</v>
       </c>
-      <c r="E76" t="s">
-        <v>159</v>
-      </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G76" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" t="s">
         <v>348</v>
       </c>
-      <c r="E77" t="s">
-        <v>160</v>
-      </c>
       <c r="F77" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G77" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
         <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G78" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
         <v>93</v>
       </c>
       <c r="C79" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="D79" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
+        <v>350</v>
       </c>
       <c r="F79" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G79" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="D80" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="E80" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>352</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G81" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82" t="s">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="F82" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>282</v>
+        <v>216</v>
       </c>
       <c r="D83" t="s">
-        <v>351</v>
+        <v>261</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>283</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="D85" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>356</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G85" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="D86" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="E86" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>219</v>
       </c>
       <c r="D87" t="s">
-        <v>353</v>
+        <v>263</v>
       </c>
       <c r="E87" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G87" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
         <v>42</v>
@@ -3432,136 +3429,136 @@
         <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>359</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G88" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>265</v>
       </c>
       <c r="E89" t="s">
-        <v>170</v>
+        <v>360</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G89" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>221</v>
       </c>
       <c r="D90" t="s">
-        <v>356</v>
+        <v>266</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>361</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G90" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="D91" t="s">
         <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
         <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>363</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>364</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G93" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
@@ -3573,13 +3570,13 @@
         <v>31</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>365</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G94" t="s">
-        <v>318</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
